--- a/設計書/00_共通設計書/各種一覧表.xlsx
+++ b/設計書/00_共通設計書/各種一覧表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2505" tabRatio="828" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2505" tabRatio="828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="処理一覧表" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -462,6 +462,26 @@
   </si>
   <si>
     <t>T_TODAY_API_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_LOCAL_MNG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各都道府県の地方を管理するTBL</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -950,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1088,6 +1108,17 @@
         <v>76</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1099,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/設計書/00_共通設計書/各種一覧表.xlsx
+++ b/設計書/00_共通設計書/各種一覧表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2505" tabRatio="828" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2505" tabRatio="828"/>
   </bookViews>
   <sheets>
     <sheet name="処理一覧表" sheetId="6" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <t>index.scss</t>
   </si>
   <si>
-    <t>ｃｓｓ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>COVID-19-Web/src/main/resources/templates</t>
   </si>
   <si>
@@ -482,6 +478,10 @@
     <rPh sb="9" eb="11">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -879,7 +879,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -887,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -902,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -915,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -928,10 +928,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -941,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -954,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -986,18 +986,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1006,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1018,10 +1018,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1030,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1042,10 +1042,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1054,10 +1054,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1066,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1078,10 +1078,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1090,10 +1090,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1102,10 +1102,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1113,10 +1113,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>25</v>
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -1193,10 +1193,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -1250,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
@@ -1358,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -1376,7 +1376,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
@@ -1391,10 +1391,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
@@ -1412,7 +1412,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>19</v>
@@ -1430,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>22</v>
@@ -1448,13 +1448,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1466,13 +1466,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1484,13 +1484,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1517,16 +1517,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1535,16 +1535,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1553,16 +1553,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1571,16 +1571,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1589,16 +1589,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1607,16 +1607,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1625,16 +1625,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/00_共通設計書/各種一覧表.xlsx
+++ b/設計書/00_共通設計書/各種一覧表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2505" tabRatio="828"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2505" tabRatio="828" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="処理一覧表" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>CSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SickBedApiUpdateDateBean.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1128,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1549,7 +1553,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <f t="shared" ref="A24:A28" si="1">ROW()-2</f>
+        <f t="shared" ref="A24:A29" si="1">ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1607,16 +1611,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1625,15 +1629,33 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
     </row>
